--- a/user-data/remittances-pp/remittances-pp.xlsx
+++ b/user-data/remittances-pp/remittances-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 79</t>
+    <t xml:space="preserve">Source: 80</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/remittances-pp/remittances-pp.xlsx
+++ b/user-data/remittances-pp/remittances-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 80</t>
+    <t xml:space="preserve">Source: 82</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/remittances-pp/remittances-pp.xlsx
+++ b/user-data/remittances-pp/remittances-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 79</t>
+    <t xml:space="preserve">Source: 82</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/remittances-pp/remittances-pp.xlsx
+++ b/user-data/remittances-pp/remittances-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 82</t>
+    <t xml:space="preserve">Source: 81</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
